--- a/r5-core-SSNr-DisplayName-Correction/StructureDefinition-at-core-address.xlsx
+++ b/r5-core-SSNr-DisplayName-Correction/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-27T14:54:38+00:00</t>
+    <t>2024-05-06T14:55:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
